--- a/data/Users.xlsx
+++ b/data/Users.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Agusers" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,14 +13,14 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Admin" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -37,6 +37,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
   </fonts>
@@ -48,12 +61,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -78,22 +106,26 @@
       <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -5249,7 +5281,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="24.6640625" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="24.6640625" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5292,7 +5324,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="22.5546875" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="22.5546875" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5349,7 +5381,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="31.21875" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="31.21875" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5386,13 +5418,13 @@
   </sheetPr>
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="26" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="26" bestFit="1" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/data/Users.xlsx
+++ b/data/Users.xlsx
@@ -38,16 +38,16 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <family val="2"/>
       <color theme="10"/>
       <sz val="11"/>
       <u val="single"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -108,17 +108,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -492,19 +492,22 @@
   </sheetPr>
   <dimension ref="A1:B397"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="37" bestFit="1" customWidth="1" min="1" max="2"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>_id</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>email</t>
         </is>
@@ -883,7 +886,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="2" t="inlineStr">
         <is>
           <t>ram.prasad@agraga.com</t>
         </is>
@@ -5263,6 +5266,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A33" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -5276,16 +5282,13 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <cols>
-    <col width="24.6640625" bestFit="1" customWidth="1" min="1" max="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>email</t>
         </is>
@@ -5306,7 +5309,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -5316,19 +5319,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <cols>
-    <col width="22.5546875" bestFit="1" customWidth="1" min="1" max="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>email</t>
         </is>
@@ -5362,8 +5362,15 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>suvendu.pradhan@agraga.com</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -5419,16 +5426,13 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <cols>
-    <col width="26" bestFit="1" customWidth="1" min="1" max="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>email</t>
         </is>
@@ -5463,6 +5467,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/Users.xlsx
+++ b/data/Users.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Agusers" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MSME" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Central Ops" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Credit Control" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Admin" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Agusers" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="MSME" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Central Ops" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Credit Control" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Admin" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -5273,16 +5273,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>email</t>
         </is>
@@ -5299,6 +5299,13 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>omprakash.jha@agraga.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>praveen.c@agraga.com</t>
         </is>
       </c>
     </row>

--- a/data/Users.xlsx
+++ b/data/Users.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Agusers" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="MSME" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Central Ops" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Credit Control" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Admin" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Agusers" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MSME" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Central Ops" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Credit Control" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Admin" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>

--- a/data/Users.xlsx
+++ b/data/Users.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Agusers" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="MSME" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Central Ops" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Credit Control" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Admin" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Agusers" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MSME" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Central Ops" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Credit Control" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Admin" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B397"/>
+  <dimension ref="A1:B398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5259,6 +5259,18 @@
       <c r="B397" t="inlineStr">
         <is>
           <t>vijay.mali@agraga.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>smita.raj@agraga.com</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>smita.raj@agraga.com</t>
         </is>
       </c>
     </row>

--- a/data/Users.xlsx
+++ b/data/Users.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Agusers" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MSME" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Central Ops" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Credit Control" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Admin" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Agusers" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="MSME" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Central Ops" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Credit Control" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Admin" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>

--- a/data/Users.xlsx
+++ b/data/Users.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Agusers" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MSME" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Central Ops" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Credit Control" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Admin" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Agusers" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="MSME" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Central Ops" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Credit Control" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Admin" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -5285,7 +5285,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5311,13 +5311,6 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>omprakash.jha@agraga.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>praveen.c@agraga.com</t>
         </is>
       </c>
     </row>
@@ -5395,13 +5388,10 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <cols>
-    <col width="31.21875" bestFit="1" customWidth="1" min="1" max="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>email</t>
         </is>
@@ -5422,7 +5412,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 

--- a/data/Users.xlsx
+++ b/data/Users.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B398"/>
+  <dimension ref="A1:B399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5271,6 +5271,18 @@
       <c r="B398" t="inlineStr">
         <is>
           <t>smita.raj@agraga.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>pranav.shah@agraga.com</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>pranav.shah@agraga.com</t>
         </is>
       </c>
     </row>

--- a/data/Users.xlsx
+++ b/data/Users.xlsx
@@ -490,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B399"/>
+  <dimension ref="A1:B403"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5283,6 +5283,54 @@
       <c r="B399" t="inlineStr">
         <is>
           <t>pranav.shah@agraga.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>simron.pereira@agraga.com</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>simron.pereira@agraga.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>girisha.jain@agraga.com</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>girisha.jain@agraga.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>dummyautomotiverm+1@agraga.com</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>dummyautomotiverm+1@agraga.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>anil.keswani@agraga.com</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>anil.keswani@agraga.com</t>
         </is>
       </c>
     </row>
